--- a/データファブリック.xlsx
+++ b/データファブリック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mridcs-my.sharepoint.com/personal/u031330_dcs-is_in_dcs_co_jp/Documents/10.Office/40.教育・研修/社外研究会/三菱CC研究会_2021/2.資料/データファブリック/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87ac16dfaa6868c0/ドキュメント/My Document/Work_Workshop/資料/データファブリック/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="771" documentId="13_ncr:1_{732C3D22-1124-4736-9085-53065C6525EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0BFE2A29-171F-4750-BE19-5A2D2CBA3781}"/>
+  <xr:revisionPtr revIDLastSave="849" documentId="13_ncr:1_{732C3D22-1124-4736-9085-53065C6525EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC163151-F757-471D-B1ED-ADD05B91FCFB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FED047E-82DA-4880-B8CE-DED36D64C24D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{5FED047E-82DA-4880-B8CE-DED36D64C24D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Fabric" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="254">
   <si>
     <t>オントロジー技術や ビジュアリゼーションツールを駆使して、データディ クショナリ内の多元的なつながりを、明らかにする ことができる。</t>
     <phoneticPr fontId="1"/>
@@ -64,26 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ガバナンスとデータ・セキュリティーの自動化：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  市場変化への迅速な対応を促進する具体的な洞察の解明により多くの時間を使えるようになります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・マルチクラウド・データ統合：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・セルフサービスのデータ使用の実現：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  データ管理機能を再利用して、効率を向上させます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・データファブリックがもたらす数多くのメリットの中でも、データの可視化とインサイト、データへのアクセスとコントロール、データの保護とセキュリティは上位に挙げられます</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -562,90 +540,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  セルフサービスでリアルタイムにデータ・アクセスが提供されると、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ビジネス・ユーザーは、適切なデータを見つけるための時間を減らして</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  アクティブなメタデータを使用してデータ保護の自動ポリシー適用を有効にすることで、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>企業データ全体で業界固有のガバナンス・ルールを迅速に適用します</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  ハイブリッドとマルチクラウドのデータ環境で、信頼できるデータを素早く使用できるようにします。 データ・エンジニアリングを自動化して</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データへのアクセスを簡素化します</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">。 </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データファブリックのコンセプト(原則)</t>
     <rPh sb="16" eb="18">
       <t>ゲンソク</t>
@@ -1093,10 +987,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> デジタルトランスフォーメーションを加速する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データファブリックとは最新の分散型データ基盤です。データが共有化され、最適化されたデータファブリック・パイプラインで連携することで、さまざまな今日のデータ問題に統一的な対処をすることができます。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1249,9 +1139,6 @@
     <t>ナレッジ、洞察、セマンティック</t>
   </si>
   <si>
-    <t>インテリジェントな統合</t>
-  </si>
-  <si>
     <t>ガバナンスとコンプライアンスの一元化</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1961,15 +1848,6 @@
   <si>
     <t>HPE</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拡張データカタログ</t>
-  </si>
-  <si>
-    <t>データの準備とデータ配信</t>
-  </si>
-  <si>
-    <t>オーケストレーション※とDataOps</t>
   </si>
   <si>
     <t>メタデータのアクティブ化とレコメンデーションエンジン</t>
@@ -2275,12 +2153,559 @@
   <si>
     <t>データ管理：NetApp ONTAP</t>
   </si>
+  <si>
+    <t xml:space="preserve"> データファブリックの導入によりデジタルトランスフォーメーションを加速することができる。</t>
+    <rPh sb="11" eb="13">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">データ仮想化は、データ・ファブリックのアプローチを可能にするテクノロジーの1つです。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ仮想化ツールは、標準ETL（抽出、変換、ロード）プロセスを使用してさまざまなオンプレミスやクラウドのソースからデータを物理的に移動するのではなく、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さまざまなソースに接続し、必要なメタデータのみを統合して、仮想データ層を作成します。 これにより、ユーザーはリアルタイムでソース・データを活用できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在、データの量は大幅に増加していますが、データから抽出される情報の量はその速さに追いついていません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> データの大部分へのアクセスは非常に困難であることが多いため、組織はデータとそのデータが持つ潜在的な洞察を手つかずのまま放置していて、知識のギャップが起きています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">データ仮想化機能を備えたデータ・ファブリック・アーキテクチャーは、この知識のギャップを減らすのに役立ちます。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織は、データを移動せずにソースのデータにアクセスできるため、より高速で正確なクエリーを使用して、価値実現までの時間を短縮できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ仮想化との違い</t>
+    <rPh sb="3" eb="6">
+      <t>カソウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガバナンスとデータ・セキュリティーの自動化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチクラウド・データ統合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルフサービスのデータ使用の実現</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> アクティブなメタデータを使用してデータ保護の自動ポリシー適用を有効にすることで、企業データ全体で業界固有の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ガバナンス・ルールを迅速に適用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>します。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ハイブリッドとマルチクラウドのデータ環境で、信頼できるデータを素早く使用できるようにします。 データ・エンジニアリングを自動化して</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データへのアクセスを簡素化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>します。   データ管理機能を再利用して、効率を向上させます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>セルフサービスで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リアルタイムにデータ・アクセスが提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されると、ビジネス・ユーザーは、適切なデータを見つけるための時間を減らして、  市場変化への迅速な対応を促進する具体的な洞察の解明により多くの時間を使えるようになります。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTT Communitations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インテリジェントな統合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ● インテリジェンスかつリアルタイムなデータ統合</t>
+    <rPh sb="23" eb="25">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ● 一元化されたガバナンス・コンプライアンス・セキュリティポリシーの管理と適用</t>
+    <rPh sb="3" eb="5">
+      <t>イチゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ● データ・エクスペリエンスの向上</t>
+    <rPh sb="16" eb="18">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>● アナリティクス・サイクルの高速化</t>
+    <rPh sb="15" eb="18">
+      <t>コウソクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>● AIによるデータマネジメントの強化・支援</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　  各データのロケーション、形式・形態、提供元システムの特性に応じて、自律的に最適化されたアクセスパスでデータ利用者との間をつなぐことで、リアルタイムなデータ統合を実現する。</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ジリツテキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　  統合されたデータカタログの中でデータセキュリティ、クオリティ、アクセスポリシーを管理し、収集・加工・保管・利用の各シーンにおいて適用すること網羅的なデータガバナンスを確立する。</t>
+    <rPh sb="3" eb="5">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>モウラテキ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　  ユーザがデータの存在を認知し、興味を持ち、実際に取得し利用するまでの間の体験を効率化し、支援する。また、利用した結果を共有し、フィードバックする為のサービスを提供する。</t>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウミ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>コウリツカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　  データの統合、分析、利用そして管理の各シーンにおいてAIの機能を加えることで、意思決定や考察の支援、高度化さらにはタスクの自動化を実現する。</t>
+    <rPh sb="7" eb="9">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>イシケッテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウサツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>コウドカ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　  課題認識から仮説設定、データ準備、分析モデル構築、検証、デプロイまでの一連のサイクルを高速化し、デリバリーのリードタイムを短縮する為の、環境及びツールを提供する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合ライフサイクル</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合データガバナンス</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データセルフサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートデータ統合</t>
+    <rPh sb="7" eb="9">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張ナレッジ</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ統合、変換、プレパレーション、仮想化、リアルタイムデータ処理</t>
+    <rPh sb="3" eb="5">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カソウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ発見、カタログ、セマンティクス、オントロジー、ナレッジグラフ、メタデータ、マスターデータ管理、参照データ、イベント駆動データ</t>
+    <rPh sb="3" eb="5">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ探索、コラボレーション、データマーケットプレース、プロビジョニング</t>
+    <rPh sb="3" eb="5">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計、開発、ビルド、テスト、オーケストレーション、デプロイ、運用</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データポリシー、データリネージ、データクオリティ、データプライバシー、コスト最適化</t>
+    <rPh sb="38" eb="41">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーケストレーション※とDataOps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張データカタログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナレッジグラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの準備とデータ配信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可視化</t>
+    <rPh sb="0" eb="3">
+      <t>カシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析、ダッシュボード、実行環境</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ジッコウカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ品質・ガバナンス・カタログ</t>
+    <rPh sb="3" eb="5">
+      <t>ヒンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想化、蓄積</t>
+    <rPh sb="0" eb="3">
+      <t>カソウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チクセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収集</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監視、アクセス制御、運用管理</t>
+    <rPh sb="0" eb="2">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウンヨウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2481,6 +2906,15 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2714,12 +3148,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2861,15 +3298,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2900,15 +3331,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2945,8 +3370,42 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2968,13 +3427,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33171</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>3586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2384613</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>116522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3034,13 +3493,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>883920</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3108,13 +3567,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>906780</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3182,13 +3641,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4320988</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>2470659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3256,13 +3715,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4306465</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>2438401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3330,13 +3789,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4278086</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>2412892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3404,13 +3863,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>97973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4191000</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>2449287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3478,13 +3937,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4430486</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>2426996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3517,6 +3976,80 @@
         <a:xfrm>
           <a:off x="2318657" y="58728429"/>
           <a:ext cx="4354286" cy="2361681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1955799</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>52307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4858728</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24202DAF-E44B-4E18-9CC1-A32A8B6C7872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2235199" y="36710857"/>
+          <a:ext cx="4858729" cy="2728993"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3848,1212 +4381,1424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E1637B-FB50-41CA-9975-3346E9FD01E9}">
-  <dimension ref="A1:S258"/>
+  <dimension ref="A1:S290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.59765625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.58203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="30" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C4" s="31"/>
     </row>
-    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C5" s="33"/>
     </row>
-    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="34" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C6" s="35"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="43"/>
       <c r="C10" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="42" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="44"/>
       <c r="C12" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="43"/>
       <c r="C13" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="45"/>
       <c r="C15" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="43"/>
       <c r="C16" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="42" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="45"/>
       <c r="C18" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="43"/>
       <c r="C19" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="45"/>
       <c r="C21" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="43"/>
       <c r="C22" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="45"/>
       <c r="C24" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="44"/>
       <c r="C25" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="23" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="43"/>
       <c r="C26" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="36" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="38" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="38" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="40" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H40" s="15" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="15" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B42" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="15" t="s">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="14"/>
+      <c r="H50" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B43" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="15" t="s">
+    <row r="51" spans="2:8" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="50" t="s">
+    <row r="52" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="9"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="2:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S76"/>
+    </row>
+    <row r="77" spans="2:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S77"/>
+    </row>
+    <row r="78" spans="2:19" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R78" s="13"/>
+      <c r="S78"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B45" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B46" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B47" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="H49" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B50" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="14"/>
-      <c r="H51" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B52" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B53" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="18" t="s">
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="71"/>
+      <c r="C93" s="16"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="9"/>
+      <c r="C95" s="16"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B99" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H53" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B54" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B56" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B58" s="9" t="s">
+    </row>
+    <row r="100" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="31"/>
+    </row>
+    <row r="101" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="33"/>
+    </row>
+    <row r="102" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" s="33"/>
+    </row>
+    <row r="103" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="33"/>
+    </row>
+    <row r="104" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="33"/>
+    </row>
+    <row r="105" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="33"/>
+    </row>
+    <row r="106" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="33"/>
+    </row>
+    <row r="107" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="33"/>
+    </row>
+    <row r="108" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="33"/>
+    </row>
+    <row r="109" spans="1:3" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B109" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="35"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="79"/>
+      <c r="C114" s="53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="79"/>
+      <c r="C116" s="53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="79"/>
+      <c r="C117" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="81"/>
+      <c r="C118" s="50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="79"/>
+      <c r="C120" s="53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="81"/>
+      <c r="C121" s="50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C122" s="53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" s="81"/>
+      <c r="C123" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="12"/>
+    </row>
+    <row r="133" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" s="12"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" s="22"/>
+      <c r="C143" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144" s="22"/>
+      <c r="C144" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145" s="21"/>
+      <c r="C145" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" s="21"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C151" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152" s="20"/>
+      <c r="C152" s="64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153" s="19"/>
+      <c r="C153" s="65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B155" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C155" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C156" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160" s="11"/>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="2"/>
+      <c r="B163" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C163" s="46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="2"/>
+      <c r="B164" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C164" s="46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="2"/>
+      <c r="B165" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="2"/>
+      <c r="B166" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="2"/>
+      <c r="B167" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C167" s="46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="2"/>
+      <c r="B170" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="2"/>
+      <c r="B171" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="2"/>
+      <c r="B172" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="2"/>
+      <c r="B173" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="2"/>
+      <c r="B174" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="2"/>
+      <c r="C176" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="2"/>
+      <c r="B177" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="2"/>
+      <c r="B178" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="2"/>
+      <c r="B179" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="2"/>
+      <c r="C180" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B184" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B185" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B186" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B187" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B188" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B189" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B190" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B59" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B61" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B62" s="9"/>
-      <c r="H62" s="15"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B63" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B64" s="10"/>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B65" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B66" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B68" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" ht="18" x14ac:dyDescent="0.45">
-      <c r="B69" s="10"/>
-      <c r="S69"/>
-    </row>
-    <row r="70" spans="2:19" ht="18" x14ac:dyDescent="0.45">
-      <c r="B70" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S70"/>
-    </row>
-    <row r="71" spans="2:19" ht="18" x14ac:dyDescent="0.45">
-      <c r="B71" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R71" s="13"/>
-      <c r="S71"/>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B72" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B73" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B75" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B77" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B78" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B79" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B80" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B81" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B82" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B83" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B84" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B85" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B86" s="9"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:3" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A88" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B90" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B92" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B93" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B94" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B95" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B96" s="9"/>
-      <c r="C96" s="16"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B97" s="9" t="s">
+    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B191"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B207" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B209" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B210" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B211" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B212" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B213" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B214" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="16"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B98" s="9"/>
-      <c r="C98" s="16"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B99" s="9"/>
-      <c r="C99" s="16"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B100" s="9"/>
-      <c r="C100" s="16"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B101" s="9"/>
-      <c r="C101" s="16"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" spans="1:3" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A103" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" s="11"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B104" s="11"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B105" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B106" s="11"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B107" s="11"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B108" s="11"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B110" s="11"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B112" s="11"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B114" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B116" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C116" s="54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B117" s="58"/>
-      <c r="C117" s="55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B118" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" s="54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B119" s="58"/>
-      <c r="C119" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B120" s="58"/>
-      <c r="C120" s="55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B121" s="59"/>
-      <c r="C121" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B122" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B123" s="58"/>
-      <c r="C123" s="55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B124" s="59"/>
-      <c r="C124" s="52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B125" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C125" s="55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B126" s="59"/>
-      <c r="C126" s="52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B127" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B128" s="11"/>
-    </row>
-    <row r="129" spans="2:4" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B129" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B130" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B131" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B132" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B133" s="11"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B134" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B135" s="12"/>
-    </row>
-    <row r="136" spans="2:4" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B136" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B137" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B138" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B139" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B140" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B141" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="C141" s="16"/>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B142" s="12"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B143" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B144" s="5"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B145" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C145" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B146" s="22"/>
-      <c r="C146" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B147" s="22"/>
-      <c r="C147" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B148" s="21"/>
-      <c r="C148" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B149" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C149" s="66" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B150" s="56" t="s">
+      <c r="C214" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B215" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B217" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B242" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="43" x14ac:dyDescent="0.55000000000000004">
+      <c r="B244" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C244" s="68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="201.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B245" s="70"/>
+      <c r="C245" s="68"/>
+    </row>
+    <row r="246" spans="2:3" ht="61" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B246" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C246" s="68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" ht="204" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B247" s="70"/>
+      <c r="C247" s="68"/>
+    </row>
+    <row r="248" spans="2:3" ht="43" x14ac:dyDescent="0.55000000000000004">
+      <c r="B248" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C248" s="68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="195" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B249" s="70"/>
+      <c r="C249" s="68"/>
+    </row>
+    <row r="250" spans="2:3" ht="84" x14ac:dyDescent="0.55000000000000004">
+      <c r="B250" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C250" s="68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="200" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B251" s="70"/>
+      <c r="C251" s="68"/>
+    </row>
+    <row r="252" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B252" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="C252" s="68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B253" s="70"/>
+      <c r="C253" s="46"/>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B254" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B257" s="11"/>
+    </row>
+    <row r="258" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B261" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B262" s="56"/>
+      <c r="C262" s="53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B263" s="56"/>
+      <c r="C263" s="53" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B264" s="56"/>
+      <c r="C264" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B265" s="57"/>
+      <c r="C265" s="50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B266" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B267" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C267" s="62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B268" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C268" s="53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B269" s="56"/>
+      <c r="C269" s="53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B270" s="56"/>
+      <c r="C270" s="53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B271" s="56"/>
+      <c r="C271" s="53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B272" s="57"/>
+      <c r="C272" s="50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B273" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B281" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B283" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B284" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B285" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B286" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B287" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B288" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B289" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B290" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C150" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B151" s="21"/>
-      <c r="C151" s="52"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B152" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B154" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C154" s="67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B155" s="20"/>
-      <c r="C155" s="68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B156" s="19"/>
-      <c r="C156" s="69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B157" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B158" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C158" s="67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B159" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C159" s="69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A163" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B163" s="11"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B165" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B166" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B167" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B168" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B169" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B170" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B171" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="B172"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B192" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B194" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B195" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B196" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B197" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="B198" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B199" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B200" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B202" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B227" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" ht="41.4" x14ac:dyDescent="0.45">
-      <c r="B229" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="C229" s="72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" ht="199.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B230" s="74"/>
-      <c r="C230" s="72"/>
-    </row>
-    <row r="231" spans="2:3" ht="54" x14ac:dyDescent="0.45">
-      <c r="B231" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="C231" s="72" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" ht="199.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B232" s="74"/>
-      <c r="C232" s="72"/>
-    </row>
-    <row r="233" spans="2:3" ht="40.799999999999997" x14ac:dyDescent="0.45">
-      <c r="B233" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C233" s="72" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" ht="199.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B234" s="74"/>
-      <c r="C234" s="72"/>
-    </row>
-    <row r="235" spans="2:3" ht="93.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B235" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="C235" s="72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" ht="199.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B236" s="74"/>
-      <c r="C236" s="72"/>
-    </row>
-    <row r="237" spans="2:3" ht="39.6" x14ac:dyDescent="0.45">
-      <c r="B237" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C237" s="72" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" ht="199.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B238" s="74"/>
-      <c r="C238" s="46"/>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B239" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="16.8" x14ac:dyDescent="0.45">
-      <c r="A242" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B242" s="11"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B246" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C246" s="54" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B247" s="58"/>
-      <c r="C247" s="55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B248" s="58"/>
-      <c r="C248" s="55" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B249" s="58"/>
-      <c r="C249" s="55" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B250" s="59"/>
-      <c r="C250" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B251" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="C251" s="66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B252" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="C252" s="66" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B253" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C253" s="55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B254" s="58"/>
-      <c r="C254" s="55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B255" s="58"/>
-      <c r="C255" s="55" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B256" s="58"/>
-      <c r="C256" s="55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B257" s="59"/>
-      <c r="C257" s="52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B258" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C258" s="66" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5072,86 +5817,86 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="63"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="23"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="23"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="23"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="23"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="23"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="23"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="23"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="23"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="23"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="23"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="23"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="23"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="23"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="23"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="23"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="23"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="23"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3"/>
     </row>
   </sheetData>

--- a/データファブリック.xlsx
+++ b/データファブリック.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87ac16dfaa6868c0/ドキュメント/My Document/Work_Workshop/資料/データファブリック/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="849" documentId="13_ncr:1_{732C3D22-1124-4736-9085-53065C6525EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC163151-F757-471D-B1ED-ADD05B91FCFB}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2F3FBCEE-BD0E-47DD-AE03-17C856259BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7761E5D5-C9E1-4F40-9C6F-E0D981AF6A42}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{5FED047E-82DA-4880-B8CE-DED36D64C24D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="258">
   <si>
     <t>オントロジー技術や ビジュアリゼーションツールを駆使して、データディ クショナリ内の多元的なつながりを、明らかにする ことができる。</t>
     <phoneticPr fontId="1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・事前にパッケージ化されたコネクターとコンポーネントを介してあらゆるデータソースに接続し、コーディングを不要にします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・データファブリックがもたらす数多くのメリットの中でも、データの可視化とインサイト、データへのアクセスとコントロール、データの保護とセキュリティは上位に挙げられます</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1147,39 +1143,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>● データ・マーケットプレイスで買物をするようにデータを選ぶ体験を提供する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>● 発見されたデータ資産を自動的に強化し、データ利用者がデータを検索し理解できるようにする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>● メタデータのローカル管理とガバナンスを可能にする一方、統一されたグローバル・ビューとポリシーの実行をサポートする</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>● グローバルおよびローカル・ルールに基づいて、データ資産にポリシーを自動的に適用する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>● 高度な機能を活用して、データ資産の分類とキュレーションを自動化する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>● データの有効化を強化するために、カタログ化された資産に対して照会可能なアクセスルートを自動的に確立する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>● 分散したデータソース全体に対応したフローとパイプラインの自動生成により、データ・エンジニアの業務を高速化する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>● データ保護ポリシーをローカルおよびグローバルに徹底することで、あらゆるデータの取り込みとデータ・アクセスのセルフサービス化を実現する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>● ワークロード配分の最適化、スキーマ・ドリフトのセルフチューニングと修正により、最適な実行を自動的に判断する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1282,10 +1250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・APIサポートを介した、社内外の関係者へのデータ共有をサポートしています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.talend.com/jp/resources/what-is-data-fabric/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1424,7 +1388,7 @@
   </si>
   <si>
     <r>
-      <t>論理データファブリックにより、クラウドシステムとオンプレミスシステム、ストリーミングシステムと履歴データシステム、レガシーシステムとモダンシステム、構造化ソース、半構造化ソース、非構造化ソース、複数ベンダーが提供するクラウドシステムなど、</t>
+      <t>論理データファブリックにより、</t>
     </r>
     <r>
       <rPr>
@@ -1436,7 +1400,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>さまざまなソースのデータにリアルタイムにアクセス</t>
+      <t>企業全体をカバーする包括的なデータカタログが実現</t>
     </r>
     <r>
       <rPr>
@@ -1446,13 +1410,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>できます。フラットファイル、ソーシャルメディアのフィード、IoTデータなども扱えます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>論理データファブリックにより、</t>
+      <t>し、データそのものに対するシームレスなアクセスが可能になります。ビジネスユーザーは、このカタログを使用することで、</t>
     </r>
     <r>
       <rPr>
@@ -1464,7 +1422,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>企業全体をカバーする包括的なデータカタログが実現</t>
+      <t>データの利用可能性と利用条件を把握</t>
     </r>
     <r>
       <rPr>
@@ -1474,7 +1432,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>し、データそのものに対するシームレスなアクセスが可能になります。ビジネスユーザーは、このカタログを使用することで、</t>
+      <t>できます。このカタログは、データの完全な</t>
     </r>
     <r>
       <rPr>
@@ -1486,7 +1444,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>データの利用可能性と利用条件を把握</t>
+      <t>リネージや適用可能な関連付けにも対応</t>
     </r>
     <r>
       <rPr>
@@ -1496,57 +1454,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>できます。このカタログは、データの完全な</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リネージや適用可能な関連付けにも対応</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>します</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>論理データファブリックのデータは、統合データアクセスレイヤーを通じてアクセスされるため、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>企業においてデータの閲覧や編集の権限を簡単に管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>できます。</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2303,13 +2211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> ● インテリジェンスかつリアルタイムなデータ統合</t>
-    <rPh sb="23" eb="25">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> ● 一元化されたガバナンス・コンプライアンス・セキュリティポリシーの管理と適用</t>
     <rPh sb="3" eb="5">
       <t>イチゲン</t>
@@ -2697,6 +2598,369 @@
     </rPh>
     <rPh sb="10" eb="14">
       <t>ウンヨウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>● 発見されたデータ資産を自動的に強化し、データ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>利用者がデータを検索し理解できるようにする</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>● データ・マーケットプレイスで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>買物をするようにデータを選ぶ体験を提供する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>● 高度な機能を活用して、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データ資産の分類とキュレーションを自動化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>● グローバルおよびローカル・ルールに基づいて、データ資産に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ポリシーを自動的に適用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>● データの有効化を強化するために、カタログ化された資産に対して照会可能な</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アクセスルートを自動的に確立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>● 分散したデータソース全体に対応した</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フローとパイプラインの自動生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>により、データ・エンジニアの業務を高速化する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>● ワークロード配分の最適化、スキーマ・ドリフトのセルフチューニングと修正により、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最適な実行を自動的に判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>論理データファブリックにより、クラウドシステムとオンプレミスシステム、ストリーミングシステムと履歴データシステム、レガシーシステムとモダンシステム、構造化ソース、半構造化ソース、非構造化ソース、複数ベンダーが提供するクラウドシステムなど、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>様々なソースのデータにリアルタイムにアクセス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できます。フラットファイル、ソーシャルメディアのフィード、IoTデータなども扱えます。</t>
+    </r>
+    <rPh sb="119" eb="121">
+      <t>サマザマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データレイクとの違い</t>
+    <rPh sb="8" eb="9">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ● インテリジェントかつリアルタイムなデータ統合</t>
+    <rPh sb="23" eb="25">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>APIサポートを介した、社内外の関係者へのデータ共有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をサポートしています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・事前にパッケージ化された</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コネクターとコンポーネントを介してあらゆるデータソースに接続し、コーディングを不要にします</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>論理データファブリックのデータは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>統合データアクセスレイヤー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を通じてアクセスされるため、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>企業においてデータの閲覧や編集の権限を簡単に管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>できます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●様々なワークロードに対するオーケストレーションとワークフロー管理</t>
+    <rPh sb="1" eb="3">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●エンタープライズデータカタログの作成と提供</t>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●ソースデータに特性に応じたデータパイプラインの構築</t>
+    <rPh sb="8" eb="10">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウチク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2705,7 +2969,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2818,14 +3082,6 @@
       <b/>
       <sz val="9"/>
       <color theme="5"/>
-      <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="Yu Gothic UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3152,11 +3408,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3190,10 +3446,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3213,18 +3469,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3247,22 +3491,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3283,22 +3527,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3310,16 +3545,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3331,16 +3560,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3361,47 +3587,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3427,13 +3662,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>33171</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>3586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2384613</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>116522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3493,13 +3728,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>883920</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3567,13 +3802,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>906780</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3641,13 +3876,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4320988</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>2470659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3715,13 +3950,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4306465</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>2438401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3789,13 +4024,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4278086</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>2412892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3863,13 +4098,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>97973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4191000</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>2449287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3937,13 +4172,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4430486</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>2426996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4009,16 +4244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1955799</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>52307</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4051299</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>39607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4858728</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140678</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4048,7 +4283,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2235199" y="36710857"/>
+          <a:off x="6286499" y="41079657"/>
           <a:ext cx="4858729" cy="2728993"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4079,6 +4314,3232 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1194928</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2634928</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>139900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C99C12D-D452-4457-898E-A20582370BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3430128" y="26054050"/>
+          <a:ext cx="1440000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データレイク</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1194928</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2634928</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>70050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D60930D-7A9B-4F21-9DD9-761B056E624C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3430128" y="26517600"/>
+          <a:ext cx="1440000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データウェアハウス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37734</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2643728</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>133550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149FD77F-FC09-4CA0-895D-F4DA7F2DFE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2272934" y="27470100"/>
+          <a:ext cx="2605994" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ストリーミング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37734</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1119228</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5D4F20-2D3F-4A54-96B7-5695016A34D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2272934" y="26060400"/>
+          <a:ext cx="1081494" cy="1365250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5201"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レプリケーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ELT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25034</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2631028</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>6550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19049799-6729-4C6E-BD2B-7190A8A5BC1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260234" y="25565100"/>
+          <a:ext cx="2605994" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ仮想化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>871822</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1771822</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8993B22-70A8-487B-8C84-B75C825405D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1151222" y="25279350"/>
+          <a:ext cx="900000" cy="3372223"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ソース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2852282</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3752282</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB66B19-2451-48D5-A0B7-60F88294EE20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5087482" y="25286821"/>
+          <a:ext cx="900000" cy="3342341"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ファブリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1915840</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2681948</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2A4A9E-2D74-4D54-9501-AFEB92B47958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2195240" y="25301762"/>
+          <a:ext cx="2721908" cy="2681941"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3058"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>クラウドサービス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1926299</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>141941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2692407</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF1897B-18A0-40BA-A251-86F88E3AF628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2205699" y="28088291"/>
+          <a:ext cx="2721908" cy="543859"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11232"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>クラウドサービス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3931782</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4651782</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>24529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C486EB97-B8F7-42F8-8232-A959C5111E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6166982" y="25297279"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>分析者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3942241</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>8215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4662241</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>14815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D15E1C-0263-4916-8040-AC3713CE3B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6177441" y="25998765"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ビジネス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3946350</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>169575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4666350</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>176175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02669C47-1D18-4F48-9901-5B1AE138F8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181550" y="26693525"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開発者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3949337</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>154633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4669337</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>161233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3180975-28A1-4551-A4A5-F6C3E1769526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184537" y="27389783"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>972307</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1692307</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>123142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="四角形: 角を丸くする 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAAA1EE-7CA4-444C-A8C0-762D327B2070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1251707" y="25929292"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SoR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>969692</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>67972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1689692</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>74572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形: 角を丸くする 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF0B003-FAB4-4871-9486-0D5B2E29D9BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249092" y="26591922"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SoE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>967451</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1687451</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>36840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形: 角を丸くする 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0215ED7-2F68-41E0-B2F9-3FD81FFEEEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1246851" y="27265390"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>IoT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63134</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形: 角を丸くする 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE936A1-E679-4937-9CA9-58D86CE635DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2298334" y="28365450"/>
+          <a:ext cx="616316" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>710834</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1327150</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: 角を丸くする 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9100F6D4-46C1-4C7F-9392-9F58053E3229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2946034" y="28365450"/>
+          <a:ext cx="616316" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1345834</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="四角形: 角を丸くする 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8011B128-F6EC-430D-BA38-BD9FFA211F20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581034" y="28371800"/>
+          <a:ext cx="616316" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1999884</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2616200</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: 角を丸くする 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB96542-0A05-442E-983B-9F6FFB9452ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235084" y="28371800"/>
+          <a:ext cx="616316" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3695608</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>142561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3983608</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>146961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矢印: 右 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88523F4E-014E-4887-9100-76E4B31403B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5929314" y="25535090"/>
+          <a:ext cx="288000" cy="362989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3691500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>99232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3979500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矢印: 右 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679D6C1F-FF53-4240-868A-475FE9EFBCF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5925206" y="26208938"/>
+          <a:ext cx="288000" cy="362988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3685150</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>67482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3973150</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>71882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矢印: 右 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77538FB-D58C-4722-A0FC-FE831872007F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5918856" y="26894364"/>
+          <a:ext cx="288000" cy="362989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3691500</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>73832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3979500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>78232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矢印: 右 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE9DF19-7460-4A5E-9C47-9BC422AA23D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5925206" y="27617891"/>
+          <a:ext cx="288000" cy="362988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2934457</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>72092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3654457</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>6692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="四角形: 角を丸くする 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C17791-4DF3-4E92-86B9-1CA267CC92B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5169657" y="25884842"/>
+          <a:ext cx="720000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カタログ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2940807</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>110192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3660807</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>44792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="四角形: 角を丸くする 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB92F40D-7EDD-42F1-84B1-8FB584DD12BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5176007" y="27523142"/>
+          <a:ext cx="720000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2940807</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>91142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3660807</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>25742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="四角形: 角を丸くする 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EA17CB-09A4-41DF-938C-7952DBFB00A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5176007" y="26970692"/>
+          <a:ext cx="720000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>オーケスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2934457</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3654457</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>13042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形: 角を丸くする 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83221C34-D3D9-41CD-9DE4-624D9195AA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5169657" y="26424592"/>
+          <a:ext cx="720000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プレパ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2947157</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>122892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3667157</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>57492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="四角形: 角を丸くする 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A19E24-5B97-472C-913D-75EF58A4AF81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5182357" y="28069242"/>
+          <a:ext cx="720000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3951437</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4671437</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="四角形: 角を丸くする 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB245842-4742-43D6-A87B-78EDD72F1761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186637" y="28054300"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取引先</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>顧客</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3693600</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>27149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3981600</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>31549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矢印: 右 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F5437F-6A29-4DBC-BA43-7FAB843BC064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5927306" y="28288384"/>
+          <a:ext cx="288000" cy="362989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1188578</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2628578</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>6550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="四角形: 角を丸くする 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911E136A-6CDC-4041-8E19-2ABE16E1060B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3423778" y="26987500"/>
+          <a:ext cx="1440000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データマート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>967451</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>11190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1687451</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>17790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="四角形: 角を丸くする 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3242DE01-1863-4122-970E-1C1BFEF94710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1246851" y="27957540"/>
+          <a:ext cx="720000" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ソーシャル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1400"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3162300</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3522300</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>137750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="グラフィックス 7" descr="頭の中の脳">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37D5C0A-DF0B-40DD-89E1-9BD7A76B37DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397500" y="28790900"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3543300</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5041900</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="四角形: 角を丸くする 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5706906E-EE25-40BE-86D8-B794A7A88501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="28987750"/>
+          <a:ext cx="1498600" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>による支援</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>自動化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3201450</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>81550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3453450</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>119750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矢印: 右 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4148B3-0ADF-4BF7-8F6E-6BB7D7EEA332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5454650" y="28543300"/>
+          <a:ext cx="216000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="10000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4369,7 +7830,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:ln/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:lnSpc>
+            <a:spcPts val="1400"/>
+          </a:lnSpc>
+          <a:defRPr kumimoji="1" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -4381,10 +7879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E1637B-FB50-41CA-9975-3346E9FD01E9}">
-  <dimension ref="A1:S290"/>
+  <dimension ref="A1:S328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
@@ -4397,160 +7895,160 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="31"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="33"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="43"/>
-      <c r="C10" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="26" t="s">
+    </row>
+    <row r="10" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="38"/>
+      <c r="C10" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="39"/>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="38"/>
+      <c r="C13" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="39"/>
+      <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="44"/>
-      <c r="C12" s="27" t="s">
+    <row r="16" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="38"/>
+      <c r="C16" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="39"/>
+      <c r="C18" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="38"/>
+      <c r="C19" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="39"/>
+      <c r="C21" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="43"/>
-      <c r="C13" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="45"/>
-      <c r="C15" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="43"/>
-      <c r="C16" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="45"/>
-      <c r="C18" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="43"/>
-      <c r="C19" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="42" t="s">
+    <row r="22" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="38"/>
+      <c r="C22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="26" t="s">
+    </row>
+    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="45"/>
-      <c r="C21" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="43"/>
-      <c r="C22" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="45"/>
-      <c r="C24" s="27" t="s">
+    <row r="24" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="39"/>
+      <c r="C24" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="44"/>
-      <c r="C25" s="27" t="s">
+    <row r="25" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="39"/>
+      <c r="C25" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="43"/>
-      <c r="C26" s="28" t="s">
+    <row r="26" spans="1:5" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="38"/>
+      <c r="C26" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4561,261 +8059,261 @@
     </row>
     <row r="30" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="37"/>
+      <c r="B31" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="33"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="39"/>
+      <c r="B32" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="35"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="39"/>
+      <c r="B33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="35"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="39"/>
+      <c r="B34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="35"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B35" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="41"/>
+      <c r="B35" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="37"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="37" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="39" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="77" t="s">
+      <c r="C42" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="77" t="s">
+      <c r="C43" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="77" t="s">
+      <c r="C44" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="77" t="s">
+      <c r="C45" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="48" t="s">
+      <c r="C46" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H46" s="15" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="H48" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="14"/>
       <c r="H50" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="76" t="s">
+    <row r="52" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H51" s="15" t="s">
+      <c r="H52" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="76" t="s">
+    <row r="53" spans="2:8" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C53" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="4"/>
     </row>
     <row r="57" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="73" t="s">
-        <v>216</v>
+      <c r="B57" s="71" t="s">
+        <v>205</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="73" t="s">
-        <v>214</v>
+      <c r="B58" s="71" t="s">
+        <v>203</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="73" t="s">
-        <v>215</v>
+      <c r="B59" s="71" t="s">
+        <v>204</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H66" s="13"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H67" s="15"/>
     </row>
@@ -4825,7 +8323,7 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" s="15"/>
     </row>
@@ -4834,17 +8332,17 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.55000000000000004">
@@ -4852,31 +8350,31 @@
     </row>
     <row r="76" spans="2:19" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S76"/>
     </row>
     <row r="77" spans="2:19" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S77"/>
     </row>
     <row r="78" spans="2:19" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R78" s="13"/>
       <c r="S78"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -4885,7 +8383,7 @@
     <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
@@ -4893,54 +8391,54 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="56" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="47" t="s">
+      <c r="C88" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="17" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="47" t="s">
+      <c r="C89" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="17" t="s">
+    </row>
+    <row r="90" spans="1:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="56" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="47" t="s">
+      <c r="C90" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="17" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="56" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="47" t="s">
+      <c r="C91" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="72" t="s">
-        <v>65</v>
+      <c r="B92" s="62" t="s">
+        <v>64</v>
       </c>
       <c r="C92" s="16"/>
     </row>
     <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="71"/>
+      <c r="B93" s="61"/>
       <c r="C93" s="16"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C94" s="16"/>
     </row>
@@ -4953,7 +8451,7 @@
     </row>
     <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B97" s="11"/>
     </row>
@@ -4962,843 +8460,972 @@
     </row>
     <row r="99" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B99" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="31"/>
+      <c r="B100" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="27"/>
     </row>
     <row r="101" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C101" s="33"/>
+      <c r="B101" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="29"/>
     </row>
     <row r="102" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="C102" s="33"/>
+      <c r="B102" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" s="29"/>
     </row>
     <row r="103" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="33"/>
+      <c r="B103" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="29"/>
     </row>
     <row r="104" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="33"/>
+      <c r="B104" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" s="29"/>
     </row>
     <row r="105" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C105" s="33"/>
+      <c r="B105" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="29"/>
     </row>
     <row r="106" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="C106" s="33"/>
+      <c r="B106" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="29"/>
     </row>
     <row r="107" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C107" s="33"/>
+      <c r="B107" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" s="29"/>
     </row>
     <row r="108" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C108" s="33"/>
+      <c r="B108" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="29"/>
     </row>
     <row r="109" spans="1:3" ht="18.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B109" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="35"/>
+      <c r="B109" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="31"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="11"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="11"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="11"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="11"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" s="47"/>
+      <c r="C138" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="47"/>
+      <c r="C140" s="45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" s="47"/>
+      <c r="C141" s="45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" s="48"/>
+      <c r="C142" s="43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C143" s="44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144" s="47"/>
+      <c r="C144" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145" s="48"/>
+      <c r="C145" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" s="63"/>
+      <c r="C147" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B155" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="C113" s="52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="79"/>
-      <c r="C114" s="53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="C115" s="52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="79"/>
-      <c r="C116" s="53" t="s">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156" s="12"/>
+    </row>
+    <row r="157" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B157" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B158" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B159" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B162" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B163" s="12"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B164" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B166" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B167" s="47"/>
+      <c r="C167" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168" s="47"/>
+      <c r="C168" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169" s="48"/>
+      <c r="C169" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B170" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C170" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B171" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C171" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B172" s="48"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B173" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B175" s="64" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" s="79"/>
-      <c r="C117" s="53" t="s">
+      <c r="C175" s="53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B176" s="65"/>
+      <c r="C176" s="54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B177" s="66"/>
+      <c r="C177" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B178" s="67" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" s="81"/>
-      <c r="C118" s="50" t="s">
+      <c r="C178" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B179" s="64" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" s="80" t="s">
+      <c r="C179" s="53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B180" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C180" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B184" s="11"/>
+    </row>
+    <row r="185" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A187" s="2"/>
+      <c r="B187" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="2"/>
+      <c r="B188" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C188" s="33"/>
+    </row>
+    <row r="189" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="2"/>
+      <c r="B189" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C189" s="35"/>
+    </row>
+    <row r="190" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="2"/>
+      <c r="B190" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C190" s="35"/>
+    </row>
+    <row r="191" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="2"/>
+      <c r="B191" s="34"/>
+      <c r="C191" s="35"/>
+    </row>
+    <row r="192" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A192" s="2"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="37"/>
+    </row>
+    <row r="193" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="2"/>
+      <c r="B198" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C198" s="40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="2"/>
+      <c r="B199" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C199" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="2"/>
+      <c r="B200" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C200" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="2"/>
+      <c r="B201" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C201" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="2"/>
+      <c r="B202" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="C119" s="52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B120" s="79"/>
-      <c r="C120" s="53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B121" s="81"/>
-      <c r="C121" s="50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B122" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="C122" s="53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B123" s="81"/>
-      <c r="C123" s="50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B124" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B125" s="11"/>
-    </row>
-    <row r="126" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B127" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B128" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B129" s="5" t="s">
+      <c r="C202" s="40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="2"/>
+      <c r="B205" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="2"/>
+      <c r="B206" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="2"/>
+      <c r="B207" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="2"/>
+      <c r="B208" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="2"/>
+      <c r="B209" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="2"/>
+      <c r="C211" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="2"/>
+      <c r="B212" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="2"/>
+      <c r="B213" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="2"/>
+      <c r="B214" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="2"/>
+      <c r="C215" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B219" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B220" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B132" s="12"/>
-    </row>
-    <row r="133" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B133" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B134" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D134" s="1" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B221" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B222" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B223" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B224" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B225" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B226"/>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B242" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B244" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B245" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B246" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B247" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="28" x14ac:dyDescent="0.55000000000000004">
+      <c r="B248" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C248" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B135" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D135" s="1" t="s">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B249" s="57" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B136" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B137" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B138" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" s="16"/>
-      <c r="D138" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B139" s="12"/>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B140" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B141" s="5"/>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B142" s="54" t="s">
+      <c r="C249" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B250" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B252" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B277" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" ht="43" x14ac:dyDescent="0.55000000000000004">
+      <c r="B279" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C279" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" ht="201.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B280" s="60"/>
+      <c r="C280" s="58"/>
+    </row>
+    <row r="281" spans="2:3" ht="61" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B281" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C281" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" ht="204" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B282" s="60"/>
+      <c r="C282" s="58"/>
+    </row>
+    <row r="283" spans="2:3" ht="43" x14ac:dyDescent="0.55000000000000004">
+      <c r="B283" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C283" s="58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="195" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B284" s="60"/>
+      <c r="C284" s="58"/>
+    </row>
+    <row r="285" spans="2:3" ht="84" x14ac:dyDescent="0.55000000000000004">
+      <c r="B285" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C285" s="58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" ht="200" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B286" s="60"/>
+      <c r="C286" s="58"/>
+    </row>
+    <row r="287" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
+      <c r="B287" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C287" s="58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B288" s="60"/>
+      <c r="C288" s="40"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B289" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B292" s="11"/>
+    </row>
+    <row r="293" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B296" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B297" s="47"/>
+      <c r="C297" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B298" s="47"/>
+      <c r="C298" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B299" s="47"/>
+      <c r="C299" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B300" s="48"/>
+      <c r="C300" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B301" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301" s="52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B302" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C302" s="52" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B303" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B304" s="47"/>
+      <c r="C304" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B305" s="47"/>
+      <c r="C305" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B306" s="47"/>
+      <c r="C306" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B307" s="48"/>
+      <c r="C307" s="43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B308" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C308" s="52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B316" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B318" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B319" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B320" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B321" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B322" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B323" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B324" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B325" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C142" s="52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B143" s="22"/>
-      <c r="C143" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B144" s="22"/>
-      <c r="C144" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B145" s="21"/>
-      <c r="C145" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B146" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B147" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C147" s="52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B148" s="21"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B149" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B151" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C151" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B152" s="20"/>
-      <c r="C152" s="64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B153" s="19"/>
-      <c r="C153" s="65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B154" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B155" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C155" s="63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B156" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C156" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B160" s="11"/>
-    </row>
-    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="2"/>
-      <c r="B163" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="C163" s="46" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="2"/>
-      <c r="B164" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="C164" s="46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="2"/>
-      <c r="B165" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="C165" s="46" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="2"/>
-      <c r="B166" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="C166" s="46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="2"/>
-      <c r="B167" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="C167" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="2"/>
-    </row>
-    <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="2"/>
-      <c r="B170" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="2"/>
-      <c r="B171" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="2"/>
-      <c r="B172" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="2"/>
-      <c r="B173" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="2"/>
-      <c r="B174" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="2"/>
-    </row>
-    <row r="176" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="2"/>
-      <c r="C176" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="2"/>
-      <c r="B177" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="2"/>
-      <c r="B178" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="2"/>
-      <c r="B179" s="1" t="s">
+    </row>
+    <row r="328" spans="1:2" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="2"/>
-      <c r="C180" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B184" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B185" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B186" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B187" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B188" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B189" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B190" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B191"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B207" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B209" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B210" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B211" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="C211" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B212" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" ht="28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B213" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B214" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B215" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B217" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B242" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" ht="43" x14ac:dyDescent="0.55000000000000004">
-      <c r="B244" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="C244" s="68" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" ht="201.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B245" s="70"/>
-      <c r="C245" s="68"/>
-    </row>
-    <row r="246" spans="2:3" ht="61" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B246" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="C246" s="68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" ht="204" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B247" s="70"/>
-      <c r="C247" s="68"/>
-    </row>
-    <row r="248" spans="2:3" ht="43" x14ac:dyDescent="0.55000000000000004">
-      <c r="B248" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="C248" s="68" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" ht="195" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B249" s="70"/>
-      <c r="C249" s="68"/>
-    </row>
-    <row r="250" spans="2:3" ht="84" x14ac:dyDescent="0.55000000000000004">
-      <c r="B250" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="C250" s="68" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" ht="200" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B251" s="70"/>
-      <c r="C251" s="68"/>
-    </row>
-    <row r="252" spans="2:3" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B252" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="C252" s="68" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B253" s="70"/>
-      <c r="C253" s="46"/>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B254" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B257" s="11"/>
-    </row>
-    <row r="258" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B261" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C261" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B262" s="56"/>
-      <c r="C262" s="53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B263" s="56"/>
-      <c r="C263" s="53" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B264" s="56"/>
-      <c r="C264" s="53" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B265" s="57"/>
-      <c r="C265" s="50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B266" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C266" s="62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B267" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="C267" s="62" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B268" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C268" s="53" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B269" s="56"/>
-      <c r="C269" s="53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B270" s="56"/>
-      <c r="C270" s="53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B271" s="56"/>
-      <c r="C271" s="53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B272" s="57"/>
-      <c r="C272" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B273" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C273" s="62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A279" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B281" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B283" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B284" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B285" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B286" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B287" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B288" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B289" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B290" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5820,75 +9447,75 @@
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="59"/>
+    <col min="2" max="16384" width="8.83203125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="60" t="s">
-        <v>37</v>
+      <c r="B3" s="51" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="59" t="s">
-        <v>139</v>
+      <c r="B5" s="50" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23"/>
+      <c r="A9" s="19"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="23"/>
+      <c r="A11" s="19"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="23"/>
+      <c r="A12" s="19"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="23"/>
+      <c r="A13" s="19"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="23"/>
+      <c r="A14" s="19"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="23"/>
+      <c r="A15" s="19"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="23"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="23"/>
+      <c r="A17" s="19"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="23"/>
+      <c r="A18" s="19"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="23"/>
+      <c r="A19" s="19"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="23"/>
+      <c r="A20" s="19"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="23"/>
+      <c r="A21" s="19"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="23"/>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="23"/>
+      <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="23"/>
+      <c r="A24" s="19"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="23"/>
+      <c r="A25" s="19"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="23"/>
+      <c r="A26" s="19"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3"/>
